--- a/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.27000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="E2" s="0">
-        <v>0.41999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="0">
-        <v>0.56000000000000005</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.68000000000000005</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -248,19 +248,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.19</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.46999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="0">
-        <v>0.63</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>0.75</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -271,19 +271,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E4" s="0">
-        <v>0.12</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -297,16 +297,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F5" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G5" s="0">
-        <v>0.11</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D6" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.12</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.13</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -340,19 +340,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.11</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -404,19 +404,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D2" s="0">
-        <v>0.25</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="E2" s="0">
-        <v>0.34999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F2" s="0">
-        <v>0.5</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G2" s="0">
-        <v>0.67000000000000004</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.23999999999999999</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="F3" s="0">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="G3" s="0">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -450,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +476,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="F5" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.02</v>
       </c>
       <c r="G5" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -499,16 +499,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.02</v>
       </c>
       <c r="F6" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.12</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="D2" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="3">
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.11</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F3" s="0">
-        <v>0.11</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G3" s="0">
-        <v>0.13</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -632,16 +632,16 @@
         <v>0.02</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -655,16 +655,16 @@
         <v>0.02</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="G5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -675,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="0">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -698,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="N_50" sheetId="2" r:id="rId3"/>
     <sheet name="N_100" sheetId="3" r:id="rId5"/>
-    <sheet name="N_200" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,46 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>FNO-4d</t>
-  </si>
-  <si>
-    <t>MHNO</t>
-  </si>
-  <si>
-    <t>PENCO (0.25)</t>
-  </si>
-  <si>
-    <t>PENCO (0.50)</t>
-  </si>
-  <si>
-    <t>PENCO (0.75)</t>
-  </si>
-  <si>
-    <t>Pure Phys.</t>
-  </si>
-  <si>
-    <t>x0_Deltat</t>
-  </si>
-  <si>
-    <t>x20_Deltat</t>
-  </si>
-  <si>
-    <t>x40_Deltat</t>
-  </si>
-  <si>
-    <t>x60_Deltat</t>
-  </si>
-  <si>
-    <t>x80_Deltat</t>
-  </si>
-  <si>
-    <t>x100_Deltat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Method</t>
   </si>
@@ -153,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,16 +123,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,19 +183,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="E2" s="0">
         <v>0.25</v>
       </c>
       <c r="F2" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="0">
-        <v>0.38</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -248,19 +206,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.25</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -280,10 +238,10 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -297,13 +255,13 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E5" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="F5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G5" s="0">
         <v>0.050000000000000003</v>
@@ -317,16 +275,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E6" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G6" s="0">
         <v>0.050000000000000003</v>
@@ -340,19 +298,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D7" s="0">
         <v>0.029999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -404,19 +362,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.17999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +385,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="E3" s="0">
-        <v>0.11</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F3" s="0">
-        <v>0.13</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>0.16</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D4" s="0">
         <v>0.02</v>
@@ -459,7 +417,7 @@
         <v>0.02</v>
       </c>
       <c r="F4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="G4" s="0">
         <v>0.029999999999999999</v>
@@ -473,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
         <v>0.02</v>
@@ -496,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
@@ -505,7 +463,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="G6" s="0">
         <v>0.029999999999999999</v>
@@ -519,198 +477,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D7" s="0">
         <v>0.029999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="9.5703125" customWidth="true"/>
-    <col min="3" max="3" width="10.5703125" customWidth="true"/>
-    <col min="4" max="4" width="10.5703125" customWidth="true"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true"/>
-    <col min="7" max="7" width="11.5703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="N_50" sheetId="2" r:id="rId3"/>
     <sheet name="N_100" sheetId="3" r:id="rId5"/>
+    <sheet name="N_200" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>FNO-4d</t>
+  </si>
+  <si>
+    <t>MHNO</t>
+  </si>
+  <si>
+    <t>PENCO (0.25)</t>
+  </si>
+  <si>
+    <t>PENCO (0.50)</t>
+  </si>
+  <si>
+    <t>PENCO (0.75)</t>
+  </si>
+  <si>
+    <t>Pure Phys.</t>
+  </si>
+  <si>
+    <t>x0_Deltat</t>
+  </si>
+  <si>
+    <t>x20_Deltat</t>
+  </si>
+  <si>
+    <t>x40_Deltat</t>
+  </si>
+  <si>
+    <t>x60_Deltat</t>
+  </si>
+  <si>
+    <t>x80_Deltat</t>
+  </si>
+  <si>
+    <t>x100_Deltat</t>
+  </si>
   <si>
     <t>Method</t>
   </si>
@@ -113,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,14 +163,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +271,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
         <v>0.029999999999999999</v>
@@ -252,7 +294,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
         <v>0.029999999999999999</v>
@@ -264,7 +306,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +329,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -408,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="0">
         <v>0.02</v>
@@ -431,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="0">
         <v>0.02</v>
@@ -440,7 +482,7 @@
         <v>0.02</v>
       </c>
       <c r="F5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="G5" s="0">
         <v>0.029999999999999999</v>
@@ -454,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
@@ -463,7 +505,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="0">
         <v>0.029999999999999999</v>
@@ -494,4 +536,183 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="9.5703125" customWidth="true"/>
+    <col min="3" max="3" width="10.5703125" customWidth="true"/>
+    <col min="4" max="4" width="10.5703125" customWidth="true"/>
+    <col min="5" max="5" width="10.5703125" customWidth="true"/>
+    <col min="6" max="6" width="10.5703125" customWidth="true"/>
+    <col min="7" max="7" width="11.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
@@ -225,7 +225,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="D2" s="0">
         <v>0.22</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="D3" s="0">
         <v>0.14999999999999999</v>
@@ -257,10 +257,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.27000000000000002</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -271,19 +271,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="5">
@@ -294,19 +294,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="6">
@@ -320,16 +320,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -407,7 +407,7 @@
         <v>0.11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="0">
         <v>0.11</v>
@@ -416,7 +416,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D3" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E3" s="0">
         <v>0.070000000000000007</v>
@@ -450,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
         <v>0.02</v>
       </c>
       <c r="E4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F4" s="0">
         <v>0.029999999999999999</v>
@@ -473,13 +473,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
         <v>0.02</v>
       </c>
       <c r="E5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F5" s="0">
         <v>0.029999999999999999</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
@@ -505,7 +505,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="G6" s="0">
         <v>0.029999999999999999</v>
@@ -522,16 +522,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="E2" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="F2" s="0">
         <v>0.10000000000000001</v>
@@ -618,7 +618,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="0">
         <v>0.02</v>
@@ -661,7 +661,7 @@
         <v>0.01</v>
       </c>
       <c r="F5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" s="0">
         <v>0.02</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
         <v>0.01</v>
@@ -701,16 +701,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/AC3d_results/ac3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="0">
-        <v>0.22</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F2" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="G2" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -248,19 +248,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="0">
-        <v>0.31</v>
+        <v>0.35999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -274,16 +274,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G4" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -294,19 +294,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G5" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -340,16 +340,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G7" s="0">
         <v>0.059999999999999998</v>
@@ -404,19 +404,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="0">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F2" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G2" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.13</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D3" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E3" s="0">
         <v>0.080000000000000002</v>
       </c>
-      <c r="E3" s="0">
-        <v>0.070000000000000007</v>
-      </c>
       <c r="F3" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="G3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -453,16 +453,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E4" s="0">
         <v>0.029999999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E5" s="0">
         <v>0.029999999999999999</v>
@@ -485,7 +485,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="G5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
       </c>
       <c r="E6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F6" s="0">
         <v>0.029999999999999999</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G7" s="0">
         <v>0.059999999999999998</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G2" s="0">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="D3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G3" s="0">
         <v>0.059999999999999998</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="0">
         <v>0.02</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F5" s="0">
         <v>0.02</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
         <v>0.01</v>
@@ -684,7 +684,7 @@
         <v>0.01</v>
       </c>
       <c r="F6" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="0">
         <v>0.02</v>
@@ -698,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G7" s="0">
         <v>0.059999999999999998</v>
